--- a/jupyter/VAE_Hyperparameter_Search.xlsx
+++ b/jupyter/VAE_Hyperparameter_Search.xlsx
@@ -98,7 +98,7 @@
       <sz val="10"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -107,10 +107,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor theme="4" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
+    <fill/>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="5"/>
@@ -125,33 +126,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor theme="7" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor theme="7" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill/>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
@@ -307,19 +283,13 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="43">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -337,57 +307,46 @@
     <xf fontId="0" fillId="0" borderId="7" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="10" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="4" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="4" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="5" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="5" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="6" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="6" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="0" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="8" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="4" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="11" numFmtId="0" xfId="0" applyBorder="1"/>
     <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf fontId="0" fillId="0" borderId="8" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="1" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf fontId="0" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="10" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="12" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="5" borderId="4" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -915,7 +874,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -927,1089 +886,1089 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="K1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" ht="14.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="9" t="s">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>200</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>6</v>
       </c>
-      <c r="F2" s="9">
-        <v>1</v>
-      </c>
-      <c r="G2" s="9">
-        <v>1</v>
-      </c>
-      <c r="H2" s="10">
+      <c r="F2" s="7">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8">
         <v>27.149999999999999</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="9">
         <v>0.20999999999999999</v>
       </c>
-      <c r="J2" s="9">
-        <f>I2*(1/F2)</f>
+      <c r="J2" s="7">
+        <f t="shared" ref="J2:J9" si="0">I2*(1/F2)</f>
         <v>0.20999999999999999</v>
       </c>
-      <c r="K2" s="9"/>
+      <c r="K2" s="7"/>
     </row>
     <row r="3" ht="14.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="13" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="11">
         <v>200</v>
       </c>
-      <c r="D3" s="14">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14">
+      <c r="D3" s="12">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13">
         <v>6</v>
       </c>
-      <c r="F3" s="14">
-        <v>1</v>
-      </c>
-      <c r="G3" s="14">
-        <v>1</v>
-      </c>
-      <c r="H3" s="15">
+      <c r="F3" s="13">
+        <v>1</v>
+      </c>
+      <c r="G3" s="13">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14">
         <v>27.350000000000001</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="15">
         <v>0.20999999999999999</v>
       </c>
-      <c r="J3" s="14">
-        <f>I3*(1/F3)</f>
+      <c r="J3" s="13">
+        <f t="shared" si="0"/>
         <v>0.20999999999999999</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="11"/>
     </row>
     <row r="4" ht="14.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>200</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>15</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="13">
-        <v>1</v>
-      </c>
-      <c r="G4" s="13">
-        <v>1</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="16">
         <v>27.739999999999998</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="17">
         <v>0.16</v>
       </c>
-      <c r="J4" s="13">
-        <f>I4*(1/F4)</f>
+      <c r="J4" s="11">
+        <f t="shared" si="0"/>
         <v>0.16</v>
       </c>
-      <c r="K4" s="13"/>
+      <c r="K4" s="11"/>
     </row>
     <row r="5" ht="14.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20" t="s">
+      <c r="A5" s="18"/>
+      <c r="B5" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="19">
         <v>200</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="19">
         <v>20</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="19">
         <v>6</v>
       </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-      <c r="G5" s="20">
-        <v>1</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
         <v>27.460000000000001</v>
       </c>
-      <c r="I5" s="22">
+      <c r="I5" s="21">
         <v>0.20000000000000001</v>
       </c>
-      <c r="J5" s="20">
-        <f>I5*(1/F5)</f>
+      <c r="J5" s="19">
+        <f t="shared" si="0"/>
         <v>0.20000000000000001</v>
       </c>
-      <c r="K5" s="20"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" ht="14.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="7">
         <v>200</v>
       </c>
-      <c r="D6" s="9">
-        <v>10</v>
-      </c>
-      <c r="E6" s="9">
+      <c r="D6" s="7">
+        <v>10</v>
+      </c>
+      <c r="E6" s="7">
         <v>2</v>
       </c>
-      <c r="F6" s="9">
-        <v>1</v>
-      </c>
-      <c r="G6" s="9">
-        <v>1</v>
-      </c>
-      <c r="H6" s="10">
+      <c r="F6" s="7">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="8">
         <v>27.73</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="9">
         <v>0.33000000000000002</v>
       </c>
-      <c r="J6" s="9">
-        <f>I6*(1/F6)</f>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
         <v>0.33000000000000002</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" ht="14.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="11">
         <v>200</v>
       </c>
-      <c r="D7" s="13">
-        <v>10</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="D7" s="11">
+        <v>10</v>
+      </c>
+      <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="13">
-        <v>1</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="17">
+      <c r="F7" s="11">
+        <v>1</v>
+      </c>
+      <c r="G7" s="11">
+        <v>1</v>
+      </c>
+      <c r="H7" s="16">
         <v>27.32</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="17">
         <v>0.27000000000000002</v>
       </c>
-      <c r="J7" s="13">
-        <f>I7*(1/F7)</f>
+      <c r="J7" s="11">
+        <f t="shared" si="0"/>
         <v>0.27000000000000002</v>
       </c>
-      <c r="K7" s="13"/>
+      <c r="K7" s="11"/>
     </row>
     <row r="8" ht="14.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="11">
         <v>200</v>
       </c>
-      <c r="D8" s="13">
-        <v>10</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="D8" s="11">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11">
         <v>6</v>
       </c>
-      <c r="F8" s="13">
-        <v>1</v>
-      </c>
-      <c r="G8" s="13">
-        <v>1</v>
-      </c>
-      <c r="H8" s="17">
+      <c r="F8" s="11">
+        <v>1</v>
+      </c>
+      <c r="G8" s="11">
+        <v>1</v>
+      </c>
+      <c r="H8" s="16">
         <v>27.379999999999999</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="17">
         <v>0.20000000000000001</v>
       </c>
-      <c r="J8" s="13">
-        <f>I8*(1/F8)</f>
+      <c r="J8" s="11">
+        <f t="shared" si="0"/>
         <v>0.20000000000000001</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" ht="14.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="11">
         <v>200</v>
       </c>
-      <c r="D9" s="23">
-        <v>10</v>
-      </c>
-      <c r="E9" s="23">
-        <v>8</v>
-      </c>
-      <c r="F9" s="23">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23">
-        <v>1</v>
-      </c>
-      <c r="H9" s="24">
+      <c r="D9" s="13">
+        <v>10</v>
+      </c>
+      <c r="E9" s="22">
+        <v>8</v>
+      </c>
+      <c r="F9" s="13">
+        <v>1</v>
+      </c>
+      <c r="G9" s="13">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
         <v>27.25</v>
       </c>
-      <c r="I9" s="25">
+      <c r="I9" s="15">
         <v>0.17999999999999999</v>
       </c>
-      <c r="J9" s="23">
-        <f>I9*(1/F9)</f>
+      <c r="J9" s="13">
+        <f t="shared" si="0"/>
         <v>0.17999999999999999</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" ht="14.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="11">
         <v>200</v>
       </c>
-      <c r="D10" s="13">
-        <v>10</v>
-      </c>
-      <c r="E10" s="13">
-        <v>10</v>
-      </c>
-      <c r="F10" s="13">
-        <v>1</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="17">
+      <c r="D10" s="11">
+        <v>10</v>
+      </c>
+      <c r="E10" s="11">
+        <v>10</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1</v>
+      </c>
+      <c r="G10" s="11">
+        <v>1</v>
+      </c>
+      <c r="H10" s="16">
         <v>27.379999999999999</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="17">
         <v>0.17000000000000001</v>
       </c>
-      <c r="J10" s="13">
-        <f>I10*(1/F10)</f>
+      <c r="J10" s="11">
+        <f t="shared" ref="J10:J34" si="1">I10*(1/F10)</f>
         <v>0.17000000000000001</v>
       </c>
-      <c r="K10" s="13"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" ht="14.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="13" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="11">
         <v>200</v>
       </c>
-      <c r="D11" s="20">
-        <v>10</v>
-      </c>
-      <c r="E11" s="20">
+      <c r="D11" s="19">
+        <v>10</v>
+      </c>
+      <c r="E11" s="19">
         <v>12</v>
       </c>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="16">
         <v>27.420000000000002</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="21">
         <v>0.17000000000000001</v>
       </c>
-      <c r="J11" s="13">
-        <f>I11*(1/F11)</f>
+      <c r="J11" s="11">
+        <f t="shared" si="1"/>
         <v>0.17000000000000001</v>
       </c>
-      <c r="K11" s="20"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" ht="14.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="6"/>
+      <c r="B12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="26">
+      <c r="C12" s="23">
         <v>200</v>
       </c>
-      <c r="D12" s="26">
-        <v>10</v>
-      </c>
-      <c r="E12" s="9">
-        <v>8</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D12" s="23">
+        <v>10</v>
+      </c>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="7">
         <v>0.25</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="11">
+      <c r="G12" s="6">
+        <v>1</v>
+      </c>
+      <c r="H12" s="9">
         <v>27.510000000000002</v>
       </c>
-      <c r="I12" s="11">
+      <c r="I12" s="9">
         <v>0.075999999999999998</v>
       </c>
-      <c r="J12" s="9">
-        <f>I12*(1/F12)</f>
+      <c r="J12" s="7">
+        <f t="shared" si="1"/>
         <v>0.30399999999999999</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" ht="14.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="13" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="27">
+      <c r="C13" s="24">
         <v>200</v>
       </c>
-      <c r="D13" s="27">
-        <v>10</v>
-      </c>
-      <c r="E13" s="13">
-        <v>8</v>
-      </c>
-      <c r="F13" s="13">
+      <c r="D13" s="24">
+        <v>10</v>
+      </c>
+      <c r="E13" s="11">
+        <v>8</v>
+      </c>
+      <c r="F13" s="11">
         <v>0.5</v>
       </c>
-      <c r="G13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="18">
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17">
         <v>27.48</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="17">
         <v>0.1081</v>
       </c>
-      <c r="J13" s="13">
-        <f>I13*(1/F13)</f>
+      <c r="J13" s="11">
+        <f t="shared" si="1"/>
         <v>0.2162</v>
       </c>
-      <c r="K13" s="13"/>
+      <c r="K13" s="11"/>
     </row>
     <row r="14" ht="14.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="27">
+      <c r="C14" s="24">
         <v>200</v>
       </c>
-      <c r="D14" s="28">
-        <v>10</v>
-      </c>
-      <c r="E14" s="29">
-        <v>8</v>
-      </c>
-      <c r="F14" s="29">
-        <v>1</v>
-      </c>
-      <c r="G14" s="30">
-        <v>1</v>
-      </c>
-      <c r="H14" s="31">
+      <c r="D14" s="25">
+        <v>10</v>
+      </c>
+      <c r="E14" s="13">
+        <v>8</v>
+      </c>
+      <c r="F14" s="26">
+        <v>1</v>
+      </c>
+      <c r="G14" s="27">
+        <v>1</v>
+      </c>
+      <c r="H14" s="15">
         <v>27.27</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="15">
         <v>0.17000000000000001</v>
       </c>
-      <c r="J14" s="29">
-        <f>I14*(1/F14)</f>
+      <c r="J14" s="13">
+        <f t="shared" si="1"/>
         <v>0.17000000000000001</v>
       </c>
-      <c r="K14" s="13"/>
+      <c r="K14" s="11"/>
     </row>
     <row r="15" ht="14.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="27">
+      <c r="C15" s="24">
         <v>200</v>
       </c>
-      <c r="D15" s="27">
-        <v>10</v>
-      </c>
-      <c r="E15" s="13">
-        <v>8</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="D15" s="24">
+        <v>10</v>
+      </c>
+      <c r="E15" s="11">
+        <v>8</v>
+      </c>
+      <c r="F15" s="11">
         <v>1.5</v>
       </c>
-      <c r="G15" s="12">
-        <v>1</v>
-      </c>
-      <c r="H15" s="18">
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="17">
         <v>27.719999999999999</v>
       </c>
-      <c r="I15" s="18">
+      <c r="I15" s="17">
         <v>0.21199999999999999</v>
       </c>
-      <c r="J15" s="13">
-        <f>I15*(1/F15)</f>
+      <c r="J15" s="11">
+        <f t="shared" si="1"/>
         <v>0.14133333333333331</v>
       </c>
-      <c r="K15" s="13"/>
+      <c r="K15" s="11"/>
     </row>
     <row r="16" ht="14.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="32" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="27">
+      <c r="C16" s="24">
         <v>200</v>
       </c>
-      <c r="D16" s="27">
-        <v>10</v>
-      </c>
-      <c r="E16" s="13">
-        <v>8</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="D16" s="24">
+        <v>10</v>
+      </c>
+      <c r="E16" s="11">
+        <v>8</v>
+      </c>
+      <c r="F16" s="11">
         <v>2</v>
       </c>
-      <c r="G16" s="12">
-        <v>1</v>
-      </c>
-      <c r="H16" s="18">
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="17">
         <v>27.52</v>
       </c>
-      <c r="I16" s="18">
+      <c r="I16" s="17">
         <v>0.26300000000000001</v>
       </c>
-      <c r="J16" s="13">
-        <f>I16*(1/F16)</f>
+      <c r="J16" s="11">
+        <f t="shared" si="1"/>
         <v>0.13150000000000001</v>
       </c>
-      <c r="K16" s="13"/>
+      <c r="K16" s="11"/>
     </row>
     <row r="17" ht="14.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20" t="s">
+      <c r="A17" s="18"/>
+      <c r="B17" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C17" s="28">
         <v>200</v>
       </c>
-      <c r="D17" s="33">
-        <v>10</v>
-      </c>
-      <c r="E17" s="20">
-        <v>8</v>
-      </c>
-      <c r="F17" s="20">
+      <c r="D17" s="28">
+        <v>10</v>
+      </c>
+      <c r="E17" s="19">
+        <v>8</v>
+      </c>
+      <c r="F17" s="19">
         <v>3</v>
       </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="22">
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="21">
         <v>27.420000000000002</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <v>0.36699999999999999</v>
       </c>
-      <c r="J17" s="20">
-        <f>I17*(1/F17)</f>
+      <c r="J17" s="19">
+        <f t="shared" si="1"/>
         <v>0.12233333333333332</v>
       </c>
-      <c r="K17" s="20" t="s">
+      <c r="K17" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" ht="14.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="9" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="9">
+      <c r="C18" s="7">
         <v>200</v>
       </c>
-      <c r="D18" s="9">
-        <v>10</v>
-      </c>
-      <c r="E18" s="9">
-        <v>8</v>
-      </c>
-      <c r="F18" s="9">
-        <v>1</v>
-      </c>
-      <c r="G18" s="9">
+      <c r="D18" s="7">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7">
+        <v>8</v>
+      </c>
+      <c r="F18" s="7">
+        <v>1</v>
+      </c>
+      <c r="G18" s="7">
         <v>0.5</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="9">
         <v>27.390000000000001</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="9">
         <v>0.1163</v>
       </c>
-      <c r="J18" s="9">
-        <f>I18*(1/F18)</f>
+      <c r="J18" s="7">
+        <f t="shared" si="1"/>
         <v>0.1163</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" ht="14.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="11">
         <v>200</v>
       </c>
-      <c r="D19" s="34">
-        <v>10</v>
-      </c>
-      <c r="E19" s="34">
-        <v>8</v>
-      </c>
-      <c r="F19" s="34">
-        <v>1</v>
-      </c>
-      <c r="G19" s="34">
-        <v>1</v>
-      </c>
-      <c r="H19" s="35">
+      <c r="D19" s="13">
+        <v>10</v>
+      </c>
+      <c r="E19" s="13">
+        <v>8</v>
+      </c>
+      <c r="F19" s="13">
+        <v>1</v>
+      </c>
+      <c r="G19" s="29">
+        <v>1</v>
+      </c>
+      <c r="H19" s="15">
         <v>27.379999999999999</v>
       </c>
-      <c r="I19" s="35">
+      <c r="I19" s="15">
         <v>0.17499999999999999</v>
       </c>
-      <c r="J19" s="34">
-        <f>I19*(1/F19)</f>
+      <c r="J19" s="13">
+        <f t="shared" si="1"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="K19" s="13"/>
+      <c r="K19" s="11"/>
     </row>
     <row r="20" ht="14.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="19">
         <v>200</v>
       </c>
-      <c r="D20" s="20">
-        <v>10</v>
-      </c>
-      <c r="E20" s="20">
-        <v>8</v>
-      </c>
-      <c r="F20" s="20">
-        <v>1</v>
-      </c>
-      <c r="G20" s="20">
+      <c r="D20" s="19">
+        <v>10</v>
+      </c>
+      <c r="E20" s="19">
+        <v>8</v>
+      </c>
+      <c r="F20" s="19">
+        <v>1</v>
+      </c>
+      <c r="G20" s="19">
         <v>2</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H20" s="21">
         <v>27.573</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <v>0.20300000000000001</v>
       </c>
-      <c r="J20" s="20">
-        <f>I20*(1/F20)</f>
+      <c r="J20" s="19">
+        <f t="shared" si="1"/>
         <v>0.20300000000000001</v>
       </c>
-      <c r="K20" s="20"/>
+      <c r="K20" s="19"/>
     </row>
     <row r="21" ht="14.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="13" t="s">
+      <c r="A21" s="7"/>
+      <c r="B21" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>100</v>
       </c>
-      <c r="D21" s="13">
-        <v>10</v>
-      </c>
-      <c r="E21" s="13">
+      <c r="D21" s="11">
+        <v>10</v>
+      </c>
+      <c r="E21" s="11">
         <v>4</v>
       </c>
-      <c r="F21" s="13">
-        <v>1</v>
-      </c>
-      <c r="G21" s="13">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
+      <c r="F21" s="11">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" s="17">
         <v>27.02</v>
       </c>
-      <c r="I21" s="18">
+      <c r="I21" s="17">
         <v>0.371</v>
       </c>
-      <c r="J21" s="9">
-        <f>I21*(1/F21)</f>
+      <c r="J21" s="7">
+        <f t="shared" si="1"/>
         <v>0.371</v>
       </c>
-      <c r="K21" s="9"/>
+      <c r="K21" s="7"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="11">
         <v>100</v>
       </c>
-      <c r="D22" s="36">
-        <v>10</v>
-      </c>
-      <c r="E22" s="36">
+      <c r="D22" s="13">
+        <v>10</v>
+      </c>
+      <c r="E22" s="22">
         <v>6</v>
       </c>
-      <c r="F22" s="36">
-        <v>1</v>
-      </c>
-      <c r="G22" s="36">
-        <v>1</v>
-      </c>
-      <c r="H22" s="37">
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="13">
+        <v>1</v>
+      </c>
+      <c r="H22" s="15">
         <v>27.030000000000001</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="15">
         <v>0.28699999999999998</v>
       </c>
-      <c r="J22" s="36">
-        <f>I22*(1/F22)</f>
+      <c r="J22" s="13">
+        <f t="shared" si="1"/>
         <v>0.28699999999999998</v>
       </c>
-      <c r="K22" s="13"/>
+      <c r="K22" s="11"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="11">
         <v>100</v>
       </c>
-      <c r="D23" s="13">
-        <v>10</v>
-      </c>
-      <c r="E23" s="13">
-        <v>8</v>
-      </c>
-      <c r="F23" s="13">
-        <v>1</v>
-      </c>
-      <c r="G23" s="13">
-        <v>1</v>
-      </c>
-      <c r="H23" s="18">
+      <c r="D23" s="11">
+        <v>10</v>
+      </c>
+      <c r="E23" s="11">
+        <v>8</v>
+      </c>
+      <c r="F23" s="11">
+        <v>1</v>
+      </c>
+      <c r="G23" s="11">
+        <v>1</v>
+      </c>
+      <c r="H23" s="17">
         <v>26.91</v>
       </c>
-      <c r="I23" s="18">
+      <c r="I23" s="17">
         <v>0.23699999999999999</v>
       </c>
-      <c r="J23" s="20">
-        <f>I23*(1/F23)</f>
+      <c r="J23" s="19">
+        <f t="shared" si="1"/>
         <v>0.23699999999999999</v>
       </c>
-      <c r="K23" s="20"/>
+      <c r="K23" s="19"/>
     </row>
     <row r="24" ht="14.25">
-      <c r="A24" s="9"/>
-      <c r="B24" s="9" t="s">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="7">
         <v>100</v>
       </c>
-      <c r="D24" s="9">
-        <v>10</v>
-      </c>
-      <c r="E24" s="9">
-        <v>8</v>
-      </c>
-      <c r="F24" s="9">
+      <c r="D24" s="7">
+        <v>10</v>
+      </c>
+      <c r="E24" s="7">
+        <v>8</v>
+      </c>
+      <c r="F24" s="7">
         <v>0.5</v>
       </c>
-      <c r="G24" s="9">
-        <v>1</v>
-      </c>
-      <c r="H24" s="11">
+      <c r="G24" s="7">
+        <v>1</v>
+      </c>
+      <c r="H24" s="9">
         <v>27.609999999999999</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="9">
         <v>0.092999999999999999</v>
       </c>
-      <c r="J24" s="9">
-        <f>I24*(1/F24)</f>
+      <c r="J24" s="7">
+        <f t="shared" si="1"/>
         <v>0.186</v>
       </c>
-      <c r="K24" s="9"/>
+      <c r="K24" s="7"/>
     </row>
     <row r="25" ht="14.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="11">
         <v>100</v>
       </c>
-      <c r="D25" s="38">
-        <v>10</v>
-      </c>
-      <c r="E25" s="38">
-        <v>8</v>
-      </c>
-      <c r="F25" s="38">
-        <v>1</v>
-      </c>
-      <c r="G25" s="38">
-        <v>1</v>
-      </c>
-      <c r="H25" s="39">
+      <c r="D25" s="13">
+        <v>10</v>
+      </c>
+      <c r="E25" s="13">
+        <v>8</v>
+      </c>
+      <c r="F25" s="26">
+        <v>1</v>
+      </c>
+      <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="15">
         <v>26.91</v>
       </c>
-      <c r="I25" s="39">
+      <c r="I25" s="15">
         <v>0.23699999999999999</v>
       </c>
-      <c r="J25" s="38">
-        <f>I25*(1/F25)</f>
+      <c r="J25" s="13">
+        <f t="shared" si="1"/>
         <v>0.23699999999999999</v>
       </c>
-      <c r="K25" s="13"/>
+      <c r="K25" s="11"/>
     </row>
     <row r="26" ht="14.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="20" t="s">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C26" s="20">
+      <c r="C26" s="19">
         <v>100</v>
       </c>
-      <c r="D26" s="20">
-        <v>10</v>
-      </c>
-      <c r="E26" s="20">
-        <v>8</v>
-      </c>
-      <c r="F26" s="20">
+      <c r="D26" s="19">
+        <v>10</v>
+      </c>
+      <c r="E26" s="19">
+        <v>8</v>
+      </c>
+      <c r="F26" s="19">
         <v>1.5</v>
       </c>
-      <c r="G26" s="20">
-        <v>1</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="G26" s="19">
+        <v>1</v>
+      </c>
+      <c r="H26" s="21">
         <v>26.699999999999999</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>0.36699999999999999</v>
       </c>
-      <c r="J26" s="20">
-        <f>I26*(1/F26)</f>
+      <c r="J26" s="19">
+        <f t="shared" si="1"/>
         <v>0.24466666666666664</v>
       </c>
-      <c r="K26" s="20"/>
+      <c r="K26" s="19"/>
     </row>
     <row r="27" ht="14.25">
-      <c r="A27" s="9"/>
-      <c r="B27" s="9" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="7">
         <v>100</v>
       </c>
-      <c r="D27" s="9">
-        <v>10</v>
-      </c>
-      <c r="E27" s="9">
-        <v>8</v>
-      </c>
-      <c r="F27" s="9">
-        <v>1</v>
-      </c>
-      <c r="G27" s="9">
+      <c r="D27" s="7">
+        <v>10</v>
+      </c>
+      <c r="E27" s="7">
+        <v>8</v>
+      </c>
+      <c r="F27" s="7">
+        <v>1</v>
+      </c>
+      <c r="G27" s="7">
         <v>0.5</v>
       </c>
-      <c r="H27" s="40">
+      <c r="H27" s="30">
         <v>27.010000000000002</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="9">
         <v>0.19</v>
       </c>
-      <c r="J27" s="9">
-        <f>I27*(1/F27)</f>
+      <c r="J27" s="7">
+        <f t="shared" si="1"/>
         <v>0.19</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="7"/>
     </row>
     <row r="28" ht="14.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="13">
+      <c r="C28" s="11">
         <v>100</v>
       </c>
-      <c r="D28" s="41">
-        <v>10</v>
-      </c>
-      <c r="E28" s="41">
-        <v>8</v>
-      </c>
-      <c r="F28" s="41">
-        <v>1</v>
-      </c>
-      <c r="G28" s="41">
-        <v>1</v>
-      </c>
-      <c r="H28" s="42">
+      <c r="D28" s="13">
+        <v>10</v>
+      </c>
+      <c r="E28" s="13">
+        <v>8</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="29">
+        <v>1</v>
+      </c>
+      <c r="H28" s="15">
         <v>26.91</v>
       </c>
-      <c r="I28" s="42">
+      <c r="I28" s="15">
         <v>0.23699999999999999</v>
       </c>
-      <c r="J28" s="41">
-        <f>I28*(1/F28)</f>
+      <c r="J28" s="13">
+        <f t="shared" si="1"/>
         <v>0.23699999999999999</v>
       </c>
-      <c r="K28" s="13"/>
+      <c r="K28" s="11"/>
     </row>
     <row r="29" ht="14.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="13">
+      <c r="C29" s="11">
         <v>100</v>
       </c>
-      <c r="D29" s="13">
-        <v>10</v>
-      </c>
-      <c r="E29" s="13">
-        <v>8</v>
-      </c>
-      <c r="F29" s="13">
-        <v>1</v>
-      </c>
-      <c r="G29" s="13">
+      <c r="D29" s="11">
+        <v>10</v>
+      </c>
+      <c r="E29" s="11">
+        <v>8</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
         <v>2</v>
       </c>
-      <c r="H29" s="18">
+      <c r="H29" s="17">
         <v>26.899999999999999</v>
       </c>
-      <c r="I29" s="18">
+      <c r="I29" s="17">
         <v>0.30199999999999999</v>
       </c>
-      <c r="J29" s="13">
-        <f>I29*(1/F29)</f>
+      <c r="J29" s="11">
+        <f t="shared" si="1"/>
         <v>0.30199999999999999</v>
       </c>
-      <c r="K29" s="20"/>
+      <c r="K29" s="19"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="A30" s="9"/>
-      <c r="B30" s="43" t="s">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="26">
+      <c r="C30" s="23">
         <v>100</v>
       </c>
-      <c r="D30" s="44">
-        <v>10</v>
-      </c>
-      <c r="E30" s="44">
-        <v>8</v>
-      </c>
-      <c r="F30" s="44">
-        <v>1</v>
-      </c>
-      <c r="G30" s="44">
-        <v>1</v>
-      </c>
-      <c r="H30" s="45">
+      <c r="D30" s="31">
+        <v>10</v>
+      </c>
+      <c r="E30" s="31">
+        <v>8</v>
+      </c>
+      <c r="F30" s="31">
+        <v>1</v>
+      </c>
+      <c r="G30" s="31">
+        <v>1</v>
+      </c>
+      <c r="H30" s="32">
         <v>28.109999999999999</v>
       </c>
-      <c r="I30" s="46">
+      <c r="I30" s="33">
         <v>0.185</v>
       </c>
-      <c r="J30" s="44">
-        <f>I30*(1/F30)</f>
+      <c r="J30" s="31">
+        <f t="shared" si="1"/>
         <v>0.185</v>
       </c>
-      <c r="K30" s="47" t="s">
+      <c r="K30" s="34" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" ht="14.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="33">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="28">
         <v>100</v>
       </c>
-      <c r="D31" s="20">
-        <v>10</v>
-      </c>
-      <c r="E31" s="20">
-        <v>8</v>
-      </c>
-      <c r="F31" s="20">
-        <v>1</v>
-      </c>
-      <c r="G31" s="20">
-        <v>1</v>
-      </c>
-      <c r="H31" s="22">
+      <c r="D31" s="19">
+        <v>10</v>
+      </c>
+      <c r="E31" s="19">
+        <v>8</v>
+      </c>
+      <c r="F31" s="19">
+        <v>1</v>
+      </c>
+      <c r="G31" s="19">
+        <v>1</v>
+      </c>
+      <c r="H31" s="21">
         <v>24.949999999999999</v>
       </c>
-      <c r="I31" s="49">
+      <c r="I31" s="35">
         <v>0.30199999999999999</v>
       </c>
-      <c r="J31" s="50">
-        <f>I31*(1/F31)</f>
+      <c r="J31" s="19">
+        <f t="shared" si="1"/>
         <v>0.30199999999999999</v>
       </c>
-      <c r="K31" s="47" t="s">
+      <c r="K31" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="32" ht="70.5" customHeight="1">
-      <c r="A32" s="13"/>
-      <c r="B32" s="51" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="52">
+      <c r="C32" s="38">
         <v>100</v>
       </c>
-      <c r="D32" s="53">
-        <v>10</v>
-      </c>
-      <c r="E32" s="53">
-        <v>8</v>
-      </c>
-      <c r="F32" s="53">
-        <v>1</v>
-      </c>
-      <c r="G32" s="53">
-        <v>1</v>
-      </c>
-      <c r="H32" s="54">
+      <c r="D32" s="39">
+        <v>10</v>
+      </c>
+      <c r="E32" s="39">
+        <v>8</v>
+      </c>
+      <c r="F32" s="39">
+        <v>1</v>
+      </c>
+      <c r="G32" s="39">
+        <v>1</v>
+      </c>
+      <c r="H32" s="40">
         <v>27.18</v>
       </c>
-      <c r="I32" s="54">
+      <c r="I32" s="40">
         <v>0.27000000000000002</v>
       </c>
-      <c r="J32" s="53">
-        <f>I32*(1/F32)</f>
+      <c r="J32" s="39">
+        <f t="shared" si="1"/>
         <v>0.27000000000000002</v>
       </c>
-      <c r="K32" s="6" t="s">
+      <c r="K32" s="41" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="33" ht="14.25">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9" t="s">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="7">
         <v>400</v>
       </c>
-      <c r="D33" s="55">
-        <v>10</v>
-      </c>
-      <c r="E33" s="55">
-        <v>8</v>
-      </c>
-      <c r="F33" s="55">
-        <v>1</v>
-      </c>
-      <c r="G33" s="55">
-        <v>1</v>
-      </c>
-      <c r="H33" s="56">
+      <c r="D33" s="31">
+        <v>10</v>
+      </c>
+      <c r="E33" s="31">
+        <v>8</v>
+      </c>
+      <c r="F33" s="31">
+        <v>1</v>
+      </c>
+      <c r="G33" s="31">
+        <v>1</v>
+      </c>
+      <c r="H33" s="32">
         <v>26.780000000000001</v>
       </c>
-      <c r="I33" s="56">
+      <c r="I33" s="32">
         <v>0.26000000000000001</v>
       </c>
-      <c r="J33" s="55">
-        <f>I33*(1/F33)</f>
+      <c r="J33" s="31">
+        <f t="shared" si="1"/>
         <v>0.26000000000000001</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="42" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="34" ht="14.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C34" s="20">
+      <c r="C34" s="19">
         <v>400</v>
       </c>
-      <c r="D34" s="20">
-        <v>10</v>
-      </c>
-      <c r="E34" s="20">
-        <v>8</v>
-      </c>
-      <c r="F34" s="20">
-        <v>1</v>
-      </c>
-      <c r="G34" s="20">
-        <v>1</v>
-      </c>
-      <c r="H34" s="22">
+      <c r="D34" s="19">
+        <v>10</v>
+      </c>
+      <c r="E34" s="19">
+        <v>8</v>
+      </c>
+      <c r="F34" s="19">
+        <v>1</v>
+      </c>
+      <c r="G34" s="19">
+        <v>1</v>
+      </c>
+      <c r="H34" s="21">
         <v>27</v>
       </c>
-      <c r="I34" s="22">
+      <c r="I34" s="21">
         <v>0.25700000000000001</v>
       </c>
-      <c r="J34" s="20">
-        <f>I34*(1/F34)</f>
+      <c r="J34" s="19">
+        <f t="shared" si="1"/>
         <v>0.25700000000000001</v>
       </c>
-      <c r="K34" s="57" t="s">
+      <c r="K34" s="28" t="s">
         <v>20</v>
       </c>
     </row>
